--- a/Category.xlsx
+++ b/Category.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A92204\Desktop\생산_MRP Material List_기타입출고\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A8130B-6AC7-4359-B9ED-EB56C5078C73}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B88D31E1-3FCF-41B6-B18B-0BB8A55AEFB6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="5220" activeTab="1" xr2:uid="{878B5DAB-0655-429E-AF68-9019FB1FD714}"/>
   </bookViews>
